--- a/Data/Opt_PR_Results_Notes.xlsx
+++ b/Data/Opt_PR_Results_Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aayorde\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aayorde\Documents\GitHub\Stock-Strategy-Exploration\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:140008_{1BBAB01B-DE58-4D4D-A316-D8BE809DC182}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5A89B04E-6F76-4227-98F6-F22856A71878}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opt_PR_Results" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opt_PR_Results!$A$1:$C$2801</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="2819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2825" uniqueCount="2820">
   <si>
     <t>Stock</t>
   </si>
@@ -8480,12 +8480,15 @@
   </si>
   <si>
     <t>Pharmy looks like trash</t>
+  </si>
+  <si>
+    <t>Legitimate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9326,11 +9329,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9701,6 +9704,9 @@
       <c r="C20">
         <v>34.226920005672497</v>
       </c>
+      <c r="D20" t="s">
+        <v>2819</v>
+      </c>
       <c r="E20">
         <f t="shared" si="0"/>
         <v>28.774879531559296</v>
@@ -9716,6 +9722,9 @@
       <c r="C21">
         <v>33.272885255865198</v>
       </c>
+      <c r="D21" t="s">
+        <v>2819</v>
+      </c>
       <c r="E21">
         <f t="shared" si="0"/>
         <v>27.820844781751997</v>
@@ -9731,6 +9740,9 @@
       <c r="C22">
         <v>30.984800665820099</v>
       </c>
+      <c r="D22" t="s">
+        <v>2819</v>
+      </c>
       <c r="E22">
         <f t="shared" si="0"/>
         <v>25.532760191706899</v>
@@ -50727,7 +50739,7 @@
         <v>7.2606502593898101E-2</v>
       </c>
       <c r="E2755">
-        <f>ABS(C2755-$G$2)</f>
+        <f t="shared" ref="E2755:E2801" si="43">ABS(C2755-$G$2)</f>
         <v>5.379433971519302</v>
       </c>
     </row>
@@ -50742,7 +50754,7 @@
         <v>7.2009763627537401E-2</v>
       </c>
       <c r="E2756">
-        <f>ABS(C2756-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.3800307104856628</v>
       </c>
     </row>
@@ -50757,7 +50769,7 @@
         <v>6.99810986217934E-2</v>
       </c>
       <c r="E2757">
-        <f>ABS(C2757-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.3820593754914068</v>
       </c>
     </row>
@@ -50772,7 +50784,7 @@
         <v>6.9101961200057599E-2</v>
       </c>
       <c r="E2758">
-        <f>ABS(C2758-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.3829385129131433</v>
       </c>
     </row>
@@ -50787,7 +50799,7 @@
         <v>6.5712883420667806E-2</v>
       </c>
       <c r="E2759">
-        <f>ABS(C2759-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.3863275906925328</v>
       </c>
     </row>
@@ -50802,7 +50814,7 @@
         <v>6.4747441097919606E-2</v>
       </c>
       <c r="E2760">
-        <f>ABS(C2760-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.3872930330152808</v>
       </c>
     </row>
@@ -50817,7 +50829,7 @@
         <v>6.2600701192436006E-2</v>
       </c>
       <c r="E2761">
-        <f>ABS(C2761-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.3894397729207641</v>
       </c>
     </row>
@@ -50832,7 +50844,7 @@
         <v>6.1584993575824698E-2</v>
       </c>
       <c r="E2762">
-        <f>ABS(C2762-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.3904554805373754</v>
       </c>
     </row>
@@ -50847,7 +50859,7 @@
         <v>5.8854419095345598E-2</v>
       </c>
       <c r="E2763">
-        <f>ABS(C2763-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.3931860550178552</v>
       </c>
     </row>
@@ -50862,7 +50874,7 @@
         <v>5.8612954267799201E-2</v>
       </c>
       <c r="E2764">
-        <f>ABS(C2764-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.3934275198454014</v>
       </c>
     </row>
@@ -50877,7 +50889,7 @@
         <v>5.6728432294484397E-2</v>
       </c>
       <c r="E2765">
-        <f>ABS(C2765-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.3953120418187162</v>
       </c>
     </row>
@@ -50892,7 +50904,7 @@
         <v>5.5809952017613497E-2</v>
       </c>
       <c r="E2766">
-        <f>ABS(C2766-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.3962305220955873</v>
       </c>
     </row>
@@ -50907,7 +50919,7 @@
         <v>5.0536202282412297E-2</v>
       </c>
       <c r="E2767">
-        <f>ABS(C2767-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4015042718307882</v>
       </c>
     </row>
@@ -50922,7 +50934,7 @@
         <v>4.7931347124638903E-2</v>
       </c>
       <c r="E2768">
-        <f>ABS(C2768-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4041091269885619</v>
       </c>
     </row>
@@ -50937,7 +50949,7 @@
         <v>4.0325285967636099E-2</v>
       </c>
       <c r="E2769">
-        <f>ABS(C2769-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4117151881455641</v>
       </c>
     </row>
@@ -50952,7 +50964,7 @@
         <v>3.74682848160659E-2</v>
       </c>
       <c r="E2770">
-        <f>ABS(C2770-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4145721892971341</v>
       </c>
     </row>
@@ -50967,7 +50979,7 @@
         <v>3.5055423594616199E-2</v>
       </c>
       <c r="E2771">
-        <f>ABS(C2771-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4169850505185844</v>
       </c>
     </row>
@@ -50982,7 +50994,7 @@
         <v>3.3816981525820598E-2</v>
       </c>
       <c r="E2772">
-        <f>ABS(C2772-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.41822349258738</v>
       </c>
     </row>
@@ -50997,7 +51009,7 @@
         <v>3.3664270516680098E-2</v>
       </c>
       <c r="E2773">
-        <f>ABS(C2773-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4183762035965204</v>
       </c>
     </row>
@@ -51012,7 +51024,7 @@
         <v>3.0869624928045899E-2</v>
       </c>
       <c r="E2774">
-        <f>ABS(C2774-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4211708491851542</v>
       </c>
     </row>
@@ -51027,7 +51039,7 @@
         <v>2.99757619998435E-2</v>
       </c>
       <c r="E2775">
-        <f>ABS(C2775-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4220647121133574</v>
       </c>
     </row>
@@ -51042,7 +51054,7 @@
         <v>2.9759457872198601E-2</v>
       </c>
       <c r="E2776">
-        <f>ABS(C2776-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4222810162410022</v>
       </c>
     </row>
@@ -51057,7 +51069,7 @@
         <v>2.96230599681791E-2</v>
       </c>
       <c r="E2777">
-        <f>ABS(C2777-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4224174141450217</v>
       </c>
     </row>
@@ -51072,7 +51084,7 @@
         <v>2.8132093474467601E-2</v>
       </c>
       <c r="E2778">
-        <f>ABS(C2778-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4239083806387329</v>
       </c>
     </row>
@@ -51087,7 +51099,7 @@
         <v>2.5526846311174901E-2</v>
       </c>
       <c r="E2779">
-        <f>ABS(C2779-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4265136278020254</v>
       </c>
     </row>
@@ -51102,7 +51114,7 @@
         <v>2.0054659856598302E-2</v>
       </c>
       <c r="E2780">
-        <f>ABS(C2780-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4319858142566018</v>
       </c>
     </row>
@@ -51117,7 +51129,7 @@
         <v>1.94827586206897E-2</v>
       </c>
       <c r="E2781">
-        <f>ABS(C2781-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4325577154925107</v>
       </c>
     </row>
@@ -51132,7 +51144,7 @@
         <v>1.8730385676947701E-2</v>
       </c>
       <c r="E2782">
-        <f>ABS(C2782-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4333100884362526</v>
       </c>
     </row>
@@ -51147,7 +51159,7 @@
         <v>1.75706057467272E-2</v>
       </c>
       <c r="E2783">
-        <f>ABS(C2783-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4344698683664729</v>
       </c>
     </row>
@@ -51162,7 +51174,7 @@
         <v>1.61692676296545E-2</v>
       </c>
       <c r="E2784">
-        <f>ABS(C2784-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4358712064835464</v>
       </c>
     </row>
@@ -51177,7 +51189,7 @@
         <v>1.4451026114574999E-2</v>
       </c>
       <c r="E2785">
-        <f>ABS(C2785-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4375894479986258</v>
       </c>
     </row>
@@ -51192,7 +51204,7 @@
         <v>1.41957551266302E-2</v>
       </c>
       <c r="E2786">
-        <f>ABS(C2786-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.43784471898657</v>
       </c>
     </row>
@@ -51207,7 +51219,7 @@
         <v>1.32165387642661E-2</v>
       </c>
       <c r="E2787">
-        <f>ABS(C2787-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4388239353489345</v>
       </c>
     </row>
@@ -51222,7 +51234,7 @@
         <v>1.1530725225456499E-2</v>
       </c>
       <c r="E2788">
-        <f>ABS(C2788-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4405097488877443</v>
       </c>
     </row>
@@ -51237,7 +51249,7 @@
         <v>1.04087614631686E-2</v>
       </c>
       <c r="E2789">
-        <f>ABS(C2789-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4416317126500315</v>
       </c>
     </row>
@@ -51252,7 +51264,7 @@
         <v>8.2787365186693992E-3</v>
       </c>
       <c r="E2790">
-        <f>ABS(C2790-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4437617375945306</v>
       </c>
     </row>
@@ -51267,7 +51279,7 @@
         <v>6.9244604316547097E-3</v>
       </c>
       <c r="E2791">
-        <f>ABS(C2791-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4451160136815462</v>
       </c>
     </row>
@@ -51282,7 +51294,7 @@
         <v>6.8518706523403904E-3</v>
       </c>
       <c r="E2792">
-        <f>ABS(C2792-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4451886034608599</v>
       </c>
     </row>
@@ -51297,7 +51309,7 @@
         <v>6.7681433196185997E-3</v>
       </c>
       <c r="E2793">
-        <f>ABS(C2793-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.445272330793582</v>
       </c>
     </row>
@@ -51312,7 +51324,7 @@
         <v>6.2608695652173803E-3</v>
       </c>
       <c r="E2794">
-        <f>ABS(C2794-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4457796045479832</v>
       </c>
     </row>
@@ -51327,7 +51339,7 @@
         <v>4.99915197380348E-3</v>
       </c>
       <c r="E2795">
-        <f>ABS(C2795-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4470413221393974</v>
       </c>
     </row>
@@ -51342,7 +51354,7 @@
         <v>4.4049873114802504E-3</v>
       </c>
       <c r="E2796">
-        <f>ABS(C2796-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4476354868017198</v>
       </c>
     </row>
@@ -51357,7 +51369,7 @@
         <v>3.88601036269431E-3</v>
       </c>
       <c r="E2797">
-        <f>ABS(C2797-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4481544637505062</v>
       </c>
     </row>
@@ -51372,7 +51384,7 @@
         <v>1.9862133426802198E-3</v>
       </c>
       <c r="E2798">
-        <f>ABS(C2798-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4500542607705205</v>
       </c>
     </row>
@@ -51387,7 +51399,7 @@
         <v>7.7962577962580905E-4</v>
       </c>
       <c r="E2799">
-        <f>ABS(C2799-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4512608483335745</v>
       </c>
     </row>
@@ -51402,7 +51414,7 @@
         <v>6.9881201956673695E-4</v>
       </c>
       <c r="E2800">
-        <f>ABS(C2800-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4513416620936335</v>
       </c>
     </row>
@@ -51417,12 +51429,12 @@
         <v>2.0040080160320199E-4</v>
       </c>
       <c r="E2801">
-        <f>ABS(C2801-$G$2)</f>
+        <f t="shared" si="43"/>
         <v>5.4518400733115975</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C2801">
+  <autoFilter ref="A1:C2801" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:C2801">
       <sortCondition descending="1" ref="C1:C2801"/>
     </sortState>
